--- a/biology/Botanique/Pâturin_annuel/Pâturin_annuel.xlsx
+++ b/biology/Botanique/Pâturin_annuel/Pâturin_annuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_annuel</t>
+          <t>Pâturin_annuel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poa annua
 Le pâturin annuel (Poa annua L.) est une espèce de plantes monocotylédones de la famille des Poaceae (sous-famille des Pooideae, tribu des Poeae). 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_annuel</t>
+          <t>Pâturin_annuel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Nomenclature et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce a été décrite et nommée Poa annua par Linné en 1753 dans Species Plantarum 1: 68[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce a été décrite et nommée Poa annua par Linné en 1753 dans Species Plantarum 1: 68.
 Le nom de genre Poa est un phytonyme de latin savant emprunté au grec ancien πόα póa « herbe ».
 L’épithète spécifique annua est le féminin singulier du latin annuo « annuel » dérivé de annus « année ».
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_annuel</t>
+          <t>Pâturin_annuel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon POWO[2], le nom valide Poa annua a 29 synonymes (non valides)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon POWO, le nom valide Poa annua a 29 synonymes (non valides)
 Aira pumila Pursh
 Catabrosa pumila (Pursh) Roem. &amp; Schult.
 Festuca tenuiculmis Tovar
@@ -589,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_annuel</t>
+          <t>Pâturin_annuel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,11 +623,13 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige du pâturin annuel fait de 5 à 30 cm de hauteur ; elle est parfois isolée et souvent cespiteuse (en touffe). 
-La feuille commence par une gaine foliaire, lisse, la supérieure est fermée sur 1/3 de sa longueur, le limbe est vert clair à vert foncé, de 2–12 cm de long sur 1–3,5 mm de large, l’apex en pointe de proue aigüe[3].
-L’inflorescence en panicule pyramidale, de 3–10 cm, à rameaux horizontaux ou rabattus, les plus longs portant 3 à 5 épillets ovales, multiflores[4].
+La feuille commence par une gaine foliaire, lisse, la supérieure est fermée sur 1/3 de sa longueur, le limbe est vert clair à vert foncé, de 2–12 cm de long sur 1–3,5 mm de large, l’apex en pointe de proue aigüe.
+L’inflorescence en panicule pyramidale, de 3–10 cm, à rameaux horizontaux ou rabattus, les plus longs portant 3 à 5 épillets ovales, multiflores.
 Les épillets sont de couleur blanchâtre, parfois colorés de violacé sur leur moitié extérieure; ils sont constitués de trois à six fleurs hermaphrodites sauf la fleur terminale qui est femelle. Glumes inégales : la glume inférieure est lancéolée, de 1,5–2 mm, la glume supérieure est elliptique, de 2–3 mm.
 En France, la plante fleurit toute l'année, de janvier à décembre, dès que les températures se radoucissent.
 Le pâturin annuel a un système racinaire ne dépassant pas 5 centimètres de profondeur, ce qui fait de lui un gazon de mauvaise qualité. Pour l'engazonnement on lui préfère donc généralement le pâturin des prés disposant d'un système racinaire en rhizomes plus résistant aux aléas climatiques.
@@ -631,7 +649,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_annuel</t>
+          <t>Pâturin_annuel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,10 +667,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poa annua est originaire de l’Eurasie (de l’Europe à la Russie orientale, la Chine, l’Inde, le Moyen orient, l’Asie centrale) et de l’Afrique du Nord (du Maroc à l’Égypte), d’Arabie, Éthiopie, Kenya, Rwanda[2].
-Elle a été introduite en Amérique du Nord, en Amérique du Sud (sauf la majorité du Brésil), en Afrique du Sud, Namibie, La Réunion, Indonésie, Australie et même Antarctique[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poa annua est originaire de l’Eurasie (de l’Europe à la Russie orientale, la Chine, l’Inde, le Moyen orient, l’Asie centrale) et de l’Afrique du Nord (du Maroc à l’Égypte), d’Arabie, Éthiopie, Kenya, Rwanda.
+Elle a été introduite en Amérique du Nord, en Amérique du Sud (sauf la majorité du Brésil), en Afrique du Sud, Namibie, La Réunion, Indonésie, Australie et même Antarctique.
 Cette plante est donc cosmopolite.
 </t>
         </is>
@@ -664,7 +684,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_annuel</t>
+          <t>Pâturin_annuel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -682,10 +702,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Chine, c’est une adventice des sols perturbés, souvent humides et ombragés ; près du niveau de la mer jusqu'à 4800 m[3]. 
-En France, le pâturin annuel produit des graines toutes l’année, qui vont lui permettre de s’installer dans les pelouses, les gazons, et au pied des arbres[5]. Sa tolérance au piétinement et à la sécheresse lui permet de s’infiltrer dans tous les interstices urbains, mêmes les plus goudronnés.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Chine, c’est une adventice des sols perturbés, souvent humides et ombragés ; près du niveau de la mer jusqu'à 4800 m. 
+En France, le pâturin annuel produit des graines toutes l’année, qui vont lui permettre de s’installer dans les pelouses, les gazons, et au pied des arbres. Sa tolérance au piétinement et à la sécheresse lui permet de s’infiltrer dans tous les interstices urbains, mêmes les plus goudronnés.
 </t>
         </is>
       </c>
@@ -696,7 +718,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_annuel</t>
+          <t>Pâturin_annuel</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,14 +738,87 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des sous-espèces
-Selon NCBI  (13 juin 2016)[6] :
-sous-espèce Poa annua subsp. pilantha
-Liste des variétés
-Selon The Plant List            (13 juin 2016)[7] :
-variété Poa annua var. rigidula (Schur) Asch. &amp; Graebn.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (13 juin 2016)[8] (Attention liste brute contenant possiblement des synonymes) :
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 juin 2016) :
+sous-espèce Poa annua subsp. pilantha</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pâturin_annuel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A2turin_annuel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (13 juin 2016) :
+variété Poa annua var. rigidula (Schur) Asch. &amp; Graebn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pâturin_annuel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A2turin_annuel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (13 juin 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Poa annua proles supina (Schrad.) Asch. &amp; Graebn.
 sous-espèce Poa annua subsp. annua
 sous-espèce Poa annua subsp. exilis (Tomm. ex Freyn) Asch. &amp; Graebn.
